--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenklimt/Documents/Uni/Computer Science/20t1/COMP3900/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Colin\OneDrive\UNI\Sem\COMP3900\capstone-project-waiting-for-the-train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF713386-2B9F-DC41-8C32-2E53BE9B49D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12C93A-3618-4B2D-8E6F-27D97B97D203}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="620" windowWidth="27240" windowHeight="15460" xr2:uid="{311D34A4-5468-B74D-BA70-C6F77BB50880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{311D34A4-5468-B74D-BA70-C6F77BB50880}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL" sheetId="1" r:id="rId1"/>
+    <sheet name="categories" sheetId="3" r:id="rId2"/>
+    <sheet name="users" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="130">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>user_type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="123">
   <si>
     <t>active</t>
   </si>
@@ -207,9 +189,6 @@
   </si>
   <si>
     <t>Cold Drinks</t>
-  </si>
-  <si>
-    <t>rest-auth/registration/</t>
   </si>
   <si>
     <t>api/menus/</t>
@@ -472,10 +451,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,1400 +768,1466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537B49FA-0452-7840-8848-4C9C7265601B}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>3.5</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>4.5</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>3.5</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>4.5</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>3.5</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>4.5</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>3.5</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>4.5</v>
       </c>
       <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>69</v>
       </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>4.2</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>77</v>
       </c>
-      <c r="F55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>6.5</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>11.6</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>7.5</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>7.5</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>93</v>
-      </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>14.5</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>0.25</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>0.5</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>0.5</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>0.25</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>0.5</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>115</v>
       </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>122</v>
-      </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>121</v>
       </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B7E769-97E2-4E77-B008-696FA42EC853}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D4304D-E662-4528-AE7C-4142011BEFCF}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>